--- a/biology/Botanique/Esplanade_des_Invalides/Esplanade_des_Invalides.xlsx
+++ b/biology/Botanique/Esplanade_des_Invalides/Esplanade_des_Invalides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'esplanade des Invalides est un vaste espace vert parisien créé au début du XVIIIe siècle.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Située entre la place des Invalides et le quai d'Orsay, elle met en valeur la façade nord de l'hôtel des Invalides.
 Elle est desservie par les lignes 8 et 13 à la station Invalides.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette voie doit son nom à l'hôtel des Invalides auquel elle mène.
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1704 à 1720, la partie du Pré-aux-Clercs appelée les « Prés-Saint-Germain » fut transformée, d'après les plans de l'architecte Robert de Cotte, en une vaste place rectangulaire semée de gazon et bordée de plusieurs rangées d'arbres. Le but originel de cet espace était de faire un potager où les invalides de guerre pouvaient cultiver des légumes, et également rencontrer les Parisiens[3]. De cette manière, les anciens combattants n'étaient pas reclus malgré leur handicap.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1704 à 1720, la partie du Pré-aux-Clercs appelée les « Prés-Saint-Germain » fut transformée, d'après les plans de l'architecte Robert de Cotte, en une vaste place rectangulaire semée de gazon et bordée de plusieurs rangées d'arbres. Le but originel de cet espace était de faire un potager où les invalides de guerre pouvaient cultiver des légumes, et également rencontrer les Parisiens. De cette manière, les anciens combattants n'étaient pas reclus malgré leur handicap.
 Cette esplanade s'étendait alors de la place des Invalides jusqu'à la rue de l'Université et son centre était marqué par le croisement de deux voies, l'avenue des Invalides, aujourd'hui avenue du Maréchal-Gallieni, et la rue Saint-Dominique dont la partie occidentale (appelée « Saint-Dominique au Gros-Caillou ») et la partie orientale (appelée « Saint-Dominique-Saint-Germain ») seraient réunies en 1838. Ce croisement était occupé par un rond-point qui accueillit, entre 1804 et 1840, la fontaine des Invalides. En vertu d'un arrêt du 4 décembre 1720 destiné à améliorer le quartier du Gros-Caillou, l'esplanade fut prolongée au nord jusqu'au quai d'Orsay.
 L'esplanade des Invalides fut le théâtre de grandes manifestations officielles, telles que la fête du 10 août 1793, l'Exposition de l'industrie en 1806 ou encore la cérémonie du retour des cendres de Napoléon du 15 décembre 1840. À l'occasion de la première de ces manifestations, une gigantesque mais éphémère statue du peuple français représenté en Hercule terrassant l’hydre du fédéralisme fut élevée au centre de l'esplanade. Elle symbolisait le récent triomphe de la Montagne sur ses ennemis politiques (Girondins et fédéralistes) et sur le Marais. Lors de la cérémonie du retour des cendres, l'esplanade fut bordée de gradins destinés à recevoir 36 000 spectateurs et l'avenue fut décorée de trente-deux statues d'hommes illustres.
 			La statue élevée au centre de l'esplanade en août 1793.
@@ -586,11 +604,11 @@
 			Au nord-est, la gare des Invalides altère la perspective de l'esplanade.
 			L'esplanade de nuit, avec l'hôtel des Invalides.
 			Esplanade des Invalides en 2022.
-Initialement propriété de l'État, l'esplanade fut cédée à la ville de Paris par la loi du 4 juin 1853[4].
-En 1883 y est organisée une manifestation dite « des ouvriers sans travail », pendant laquelle des boulangeries du quartier sont pillées. Louise Michel, qui y a participé, est condamnée à six ans de prison ; elle est libérée en 1886[5].
+Initialement propriété de l'État, l'esplanade fut cédée à la ville de Paris par la loi du 4 juin 1853.
+En 1883 y est organisée une manifestation dite « des ouvriers sans travail », pendant laquelle des boulangeries du quartier sont pillées. Louise Michel, qui y a participé, est condamnée à six ans de prison ; elle est libérée en 1886.
 À l'occasion de l'Exposition universelle de 1900, pendant laquelle elle fut bordée de pavillons temporaires, l'esplanade fut reliée aux Champs-Élysées grâce à la construction du pont Alexandre-III. C'est à cette même époque que fut construite la gare des Invalides qui, transformée en aérogare à destination d'Orly en 1948 et reliée au RER C en 1979, deviendrait un nœud de transport multimodal.
 Le site est classé par arrêté ministériel du 19 novembre 1910.
-Le 5 août 1918, durant la Première Guerre mondiale, un obus lancé par la Grosse Bertha explose sur l'esplanade des Invalides[6].
+Le 5 août 1918, durant la Première Guerre mondiale, un obus lancé par la Grosse Bertha explose sur l'esplanade des Invalides.
 </t>
         </is>
       </c>
@@ -619,7 +637,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2013 : 20 ans d'écart, film de David Moreau.</t>
         </is>
